--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Field Type</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>&lt;model&gt;Model A1.3&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bus address</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;1&lt;/address&gt;</t>
   </si>
   <si>
     <t>firmware</t>
@@ -548,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,152 +751,169 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Field Type</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>auto = Follow programmed path (manual = Go to a fixed position, storm = Go to a fixed position, calibrate = Execute test mode)</t>
+  </si>
+  <si>
+    <t>T[1..x]</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperatures</t>
   </si>
   <si>
     <t>TRACKER_TYPE</t>
@@ -557,7 +566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,8 +877,11 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -877,10 +889,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -888,10 +900,10 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -899,10 +911,10 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -910,10 +922,21 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -185,7 +185,7 @@
     <t>MODE</t>
   </si>
   <si>
-    <t>Mode of tracker (0 = Auto, follow programmed path, 1 = Manual, go to a fixed position, 2 = Storm, go to a fixed position, 3 = Calibrate, execute test mode)</t>
+    <t>Mode of tracker (0 = Auto, follow programmed path, 1 = Manual, go to a fixed position, 2 = Storm, go to a fixed position, 3 = Calibrate, execute test mode, 4 = Clean, go to a fixed position)</t>
   </si>
   <si>
     <t>T[1..x]</t>

--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Field Type</t>
   </si>
@@ -141,6 +141,27 @@
   </si>
   <si>
     <t>datapoints</t>
+  </si>
+  <si>
+    <t>ACC_X</t>
+  </si>
+  <si>
+    <t>m/s²</t>
+  </si>
+  <si>
+    <t>Sensor acceleration on east-west axis</t>
+  </si>
+  <si>
+    <t>ACC_Y</t>
+  </si>
+  <si>
+    <t>Sensor acceleration on north-south axis</t>
+  </si>
+  <si>
+    <t>ACC_Z</t>
+  </si>
+  <si>
+    <t>Sensor acceleration on vertical axis</t>
   </si>
   <si>
     <t>AZIMUTH</t>
@@ -575,7 +596,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,10 +869,10 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -859,13 +880,13 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -873,13 +894,13 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -887,10 +908,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -898,10 +922,10 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -914,6 +938,9 @@
       <c r="B20" t="s">
         <v>60</v>
       </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" t="s">
         <v>61</v>
       </c>
@@ -936,8 +963,11 @@
       <c r="B22" t="s">
         <v>64</v>
       </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -945,10 +975,10 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -956,10 +986,43 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Field Type</t>
   </si>
@@ -216,6 +216,54 @@
   </si>
   <si>
     <t>Temperatures</t>
+  </si>
+  <si>
+    <t>TB_CAPACITY</t>
+  </si>
+  <si>
+    <t>mAh</t>
+  </si>
+  <si>
+    <t>Tracker battery full capacity</t>
+  </si>
+  <si>
+    <t>TB_I</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>Tracker battery current</t>
+  </si>
+  <si>
+    <t>TB_REM_CAP</t>
+  </si>
+  <si>
+    <t>Tracker battery remaining capacity</t>
+  </si>
+  <si>
+    <t>TB_SOC</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Tracker battery SOC</t>
+  </si>
+  <si>
+    <t>TB_SOH</t>
+  </si>
+  <si>
+    <t>Tracker battery SOH</t>
+  </si>
+  <si>
+    <t>TB_U</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>Tracker battery voltage</t>
   </si>
   <si>
     <t>TRACKER_TYPE</t>
@@ -278,22 +326,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -592,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,14 +653,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="262.935791" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="36.419678" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="262.936" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -977,8 +1026,11 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -986,10 +1038,13 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -997,10 +1052,13 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1008,10 +1066,13 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1019,17 +1080,88 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1038,5 +1170,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/import-specification/devices/tracker.xlsx
+++ b/import-specification/devices/tracker.xlsx
@@ -260,7 +260,7 @@
     <t>TB_U</t>
   </si>
   <si>
-    <t>mV</t>
+    <t>V</t>
   </si>
   <si>
     <t>Tracker battery voltage</t>
